--- a/Notebooks/Figures/colonies_figures.xlsx
+++ b/Notebooks/Figures/colonies_figures.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">Normed kymos</t>
+  </si>
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -49,43 +52,52 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">pLPT20&amp;pLPT41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pLPT119&amp;pLPT41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single reporter no deg tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single reporter IPTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single reporter ATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pLPT107&amp;pLPT41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple reporter IPTG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ti scope</t>
   </si>
   <si>
-    <t xml:space="preserve">pLPT20&amp;pLPT41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pLPT119&amp;pLPT41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single reporter no deg tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single reporter IPTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single reporter ATC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pLPT107&amp;pLPT41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triple reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triple reporter IPTG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Triple reporter ATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean fluo</t>
   </si>
 </sst>
 </file>
@@ -101,6 +113,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,6 +135,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +190,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -223,180 +241,760 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>45258</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>45245</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>45266</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="n">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>45268</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>45264</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>45264</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>45268</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
